--- a/team_specific_matrix/FGCU_A.xlsx
+++ b/team_specific_matrix/FGCU_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2159090909090909</v>
+        <v>0.2164502164502164</v>
       </c>
       <c r="C2">
-        <v>0.5227272727272727</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02272727272727273</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1761363636363636</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0625</v>
+        <v>0.05194805194805195</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05376344086021505</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7311827956989247</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2150537634408602</v>
+        <v>0.253968253968254</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4615384615384616</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04166666666666666</v>
+        <v>0.06321839080459771</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02083333333333333</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09027777777777778</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1458333333333333</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01388888888888889</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1458333333333333</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R6">
-        <v>0.08333333333333333</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="S6">
-        <v>0.4583333333333333</v>
+        <v>0.4022988505747127</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.11</v>
+        <v>0.1138211382113821</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.21</v>
+        <v>0.2276422764227642</v>
       </c>
       <c r="R7">
-        <v>0.11</v>
+        <v>0.1056910569105691</v>
       </c>
       <c r="S7">
-        <v>0.41</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09422492401215805</v>
+        <v>0.09536082474226804</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0303951367781155</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06382978723404255</v>
+        <v>0.05927835051546392</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1094224924012158</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0121580547112462</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1732522796352584</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="R8">
-        <v>0.0790273556231003</v>
+        <v>0.07474226804123711</v>
       </c>
       <c r="S8">
-        <v>0.4376899696048632</v>
+        <v>0.4407216494845361</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07926829268292683</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01219512195121951</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08536585365853659</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1158536585365854</v>
+        <v>0.1138613861386139</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01829268292682927</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1951219512195122</v>
+        <v>0.202970297029703</v>
       </c>
       <c r="R9">
-        <v>0.08536585365853659</v>
+        <v>0.1138613861386139</v>
       </c>
       <c r="S9">
-        <v>0.4085365853658536</v>
+        <v>0.3564356435643564</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09735576923076923</v>
+        <v>0.09815354713313897</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01201923076923077</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07451923076923077</v>
+        <v>0.07677356656948493</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1262019230769231</v>
+        <v>0.119533527696793</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01682692307692308</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2199519230769231</v>
+        <v>0.2264334305150632</v>
       </c>
       <c r="R10">
-        <v>0.09254807692307693</v>
+        <v>0.08454810495626822</v>
       </c>
       <c r="S10">
-        <v>0.3605769230769231</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1225806451612903</v>
+        <v>0.1287128712871287</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1096774193548387</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.2128712871287129</v>
       </c>
       <c r="L11">
-        <v>0.5483870967741935</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01935483870967742</v>
+        <v>0.01485148514851485</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7954545454545454</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1136363636363636</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="K12">
-        <v>0.01136363636363636</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="L12">
-        <v>0.02272727272727273</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05681818181818182</v>
+        <v>0.04629629629629629</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.64</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.32</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007092198581560284</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1631205673758865</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="I15">
-        <v>0.04964539007092199</v>
+        <v>0.0625</v>
       </c>
       <c r="J15">
-        <v>0.3687943262411347</v>
+        <v>0.3579545454545455</v>
       </c>
       <c r="K15">
-        <v>0.09219858156028368</v>
+        <v>0.09659090909090909</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007092198581560284</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04964539007092199</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2624113475177305</v>
+        <v>0.2443181818181818</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2242990654205607</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="I16">
-        <v>0.102803738317757</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="J16">
-        <v>0.3925233644859813</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="K16">
-        <v>0.09345794392523364</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02803738317757009</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05607476635514019</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.102803738317757</v>
+        <v>0.1276595744680851</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.003205128205128205</v>
+        <v>0.007481296758104738</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2019230769230769</v>
+        <v>0.1920199501246883</v>
       </c>
       <c r="I17">
-        <v>0.08653846153846154</v>
+        <v>0.09476309226932668</v>
       </c>
       <c r="J17">
-        <v>0.4391025641025641</v>
+        <v>0.4488778054862843</v>
       </c>
       <c r="K17">
-        <v>0.09935897435897435</v>
+        <v>0.08977556109725686</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01602564102564102</v>
+        <v>0.01246882793017456</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002493765586034913</v>
       </c>
       <c r="O17">
-        <v>0.05128205128205128</v>
+        <v>0.04488778054862843</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1025641025641026</v>
+        <v>0.1072319201995012</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007142857142857143</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1714285714285714</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="I18">
-        <v>0.1428571428571428</v>
+        <v>0.1385542168674699</v>
       </c>
       <c r="J18">
-        <v>0.4357142857142857</v>
+        <v>0.4518072289156627</v>
       </c>
       <c r="K18">
-        <v>0.07142857142857142</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.007142857142857143</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="O18">
-        <v>0.07857142857142857</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08571428571428572</v>
+        <v>0.08433734939759036</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01720183486238532</v>
+        <v>0.007766990291262136</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2144495412844037</v>
+        <v>0.2184466019417476</v>
       </c>
       <c r="I19">
-        <v>0.1089449541284404</v>
+        <v>0.1145631067961165</v>
       </c>
       <c r="J19">
-        <v>0.3704128440366973</v>
+        <v>0.374757281553398</v>
       </c>
       <c r="K19">
-        <v>0.06422018348623854</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01834862385321101</v>
+        <v>0.01844660194174757</v>
       </c>
       <c r="N19">
-        <v>0.001146788990825688</v>
+        <v>0.0009708737864077669</v>
       </c>
       <c r="O19">
-        <v>0.06536697247706422</v>
+        <v>0.07087378640776699</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1399082568807339</v>
+        <v>0.116504854368932</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/FGCU_A.xlsx
+++ b/team_specific_matrix/FGCU_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2164502164502164</v>
+        <v>0.2154471544715447</v>
       </c>
       <c r="C2">
-        <v>0.5324675324675324</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01731601731601732</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1818181818181818</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05194805194805195</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05555555555555555</v>
+        <v>0.05147058823529412</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6904761904761905</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.253968253968254</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03225806451612903</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5806451612903226</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3870967741935484</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06321839080459771</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02298850574712644</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08045977011494253</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1436781609195402</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03448275862068965</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1724137931034483</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="R6">
-        <v>0.08045977011494253</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="S6">
-        <v>0.4022988505747127</v>
+        <v>0.4086538461538461</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1138211382113821</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01626016260162602</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03252032520325204</v>
+        <v>0.04195804195804196</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0975609756097561</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01626016260162602</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2276422764227642</v>
+        <v>0.2167832167832168</v>
       </c>
       <c r="R7">
-        <v>0.1056910569105691</v>
+        <v>0.0979020979020979</v>
       </c>
       <c r="S7">
-        <v>0.3902439024390244</v>
+        <v>0.4055944055944056</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09536082474226804</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02577319587628866</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05927835051546392</v>
+        <v>0.07746478873239436</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1082474226804124</v>
+        <v>0.107981220657277</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01030927835051546</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1855670103092784</v>
+        <v>0.1854460093896714</v>
       </c>
       <c r="R8">
-        <v>0.07474226804123711</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="S8">
-        <v>0.4407216494845361</v>
+        <v>0.4225352112676056</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0891089108910891</v>
+        <v>0.084070796460177</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009900990099009901</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09405940594059406</v>
+        <v>0.084070796460177</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1138613861386139</v>
+        <v>0.1106194690265487</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0198019801980198</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.202970297029703</v>
+        <v>0.1991150442477876</v>
       </c>
       <c r="R9">
-        <v>0.1138613861386139</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="S9">
-        <v>0.3564356435643564</v>
+        <v>0.3628318584070797</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09815354713313897</v>
+        <v>0.09193408499566348</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01360544217687075</v>
+        <v>0.01387684301821336</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07677356656948493</v>
+        <v>0.07892454466608846</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.119533527696793</v>
+        <v>0.1153512575888985</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01360544217687075</v>
+        <v>0.01474414570685169</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2264334305150632</v>
+        <v>0.2298352124891587</v>
       </c>
       <c r="R10">
-        <v>0.08454810495626822</v>
+        <v>0.09106678230702515</v>
       </c>
       <c r="S10">
-        <v>0.3673469387755102</v>
+        <v>0.3642671292281006</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1287128712871287</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1188118811881188</v>
+        <v>0.125</v>
       </c>
       <c r="K11">
-        <v>0.2128712871287129</v>
+        <v>0.2208333333333333</v>
       </c>
       <c r="L11">
-        <v>0.5247524752475248</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01485148514851485</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7777777777777778</v>
+        <v>0.782258064516129</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1296296296296296</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="K12">
-        <v>0.01851851851851852</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="L12">
-        <v>0.02777777777777778</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04629629629629629</v>
+        <v>0.04032258064516129</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6428571428571429</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3214285714285715</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01704545454545454</v>
+        <v>0.015</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1590909090909091</v>
+        <v>0.155</v>
       </c>
       <c r="I15">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="J15">
-        <v>0.3579545454545455</v>
+        <v>0.38</v>
       </c>
       <c r="K15">
-        <v>0.09659090909090909</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005681818181818182</v>
+        <v>0.005</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05681818181818182</v>
+        <v>0.05</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2443181818181818</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007092198581560284</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2127659574468085</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="I16">
-        <v>0.09929078014184398</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="J16">
-        <v>0.3829787234042553</v>
+        <v>0.3986928104575164</v>
       </c>
       <c r="K16">
-        <v>0.09219858156028368</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02127659574468085</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05673758865248227</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1276595744680851</v>
+        <v>0.1241830065359477</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007481296758104738</v>
+        <v>0.006651884700665188</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1920199501246883</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="I17">
-        <v>0.09476309226932668</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="J17">
-        <v>0.4488778054862843</v>
+        <v>0.4279379157427938</v>
       </c>
       <c r="K17">
-        <v>0.08977556109725686</v>
+        <v>0.09312638580931264</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01246882793017456</v>
+        <v>0.01108647450110865</v>
       </c>
       <c r="N17">
-        <v>0.002493765586034913</v>
+        <v>0.002217294900221729</v>
       </c>
       <c r="O17">
-        <v>0.04488778054862843</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1072319201995012</v>
+        <v>0.1175166297117517</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01204819277108434</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1686746987951807</v>
+        <v>0.1573604060913706</v>
       </c>
       <c r="I18">
-        <v>0.1385542168674699</v>
+        <v>0.1472081218274112</v>
       </c>
       <c r="J18">
-        <v>0.4518072289156627</v>
+        <v>0.4365482233502538</v>
       </c>
       <c r="K18">
-        <v>0.06626506024096386</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="N18">
-        <v>0.006024096385542169</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="O18">
-        <v>0.07228915662650602</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08433734939759036</v>
+        <v>0.08629441624365482</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007766990291262136</v>
+        <v>0.009532062391681109</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2184466019417476</v>
+        <v>0.2123050259965338</v>
       </c>
       <c r="I19">
-        <v>0.1145631067961165</v>
+        <v>0.1117850953206239</v>
       </c>
       <c r="J19">
-        <v>0.374757281553398</v>
+        <v>0.3760831889081456</v>
       </c>
       <c r="K19">
-        <v>0.07766990291262135</v>
+        <v>0.08232235701906412</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01844660194174757</v>
+        <v>0.01646447140381282</v>
       </c>
       <c r="N19">
-        <v>0.0009708737864077669</v>
+        <v>0.0008665511265164644</v>
       </c>
       <c r="O19">
-        <v>0.07087378640776699</v>
+        <v>0.07279029462738301</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.116504854368932</v>
+        <v>0.1178509532062392</v>
       </c>
     </row>
   </sheetData>
